--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.95719244420744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.029601395049836</v>
+        <v>2.029601395049831</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>14.14830793810091</v>
@@ -655,7 +655,7 @@
         <v>12.5067074797951</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>14.66519715396169</v>
+        <v>14.66519715396168</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.887689514884871</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.19259915189628</v>
+        <v>-9.596403001175927</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.807141418278672</v>
+        <v>-3.642366061176988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.44687193613226</v>
+        <v>-4.815962361166749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.643627337228588</v>
+        <v>6.604308113739682</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.817072796299804</v>
+        <v>3.800805496564942</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.594976472343296</v>
+        <v>7.404617753610958</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7676813342496263</v>
+        <v>0.7669848134446134</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.141231483132036</v>
+        <v>2.993573193120114</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.398671917891412</v>
+        <v>3.902996602876838</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.257215642937655</v>
+        <v>4.775556504289446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.19225809402641</v>
+        <v>12.0148723298797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.654316143700914</v>
+        <v>8.175867766419334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.97973495228046</v>
+        <v>23.02193140841274</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.95384763146921</v>
+        <v>21.19329794123392</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.7432415847963</v>
+        <v>20.90633575747582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.19450510743848</v>
+        <v>12.94874918402142</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.42244258647404</v>
+        <v>14.41651896260907</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.6657130666763</v>
+        <v>13.39515083613054</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3726275849020962</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1911166759803154</v>
+        <v>0.1911166759803149</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.31510862542643</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6429488433215694</v>
+        <v>-0.6454786215396213</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3375759874521174</v>
+        <v>-0.2908463107365939</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.352270090289126</v>
+        <v>-0.3258132207602122</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2526226864913805</v>
+        <v>0.4063475532924665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2707136521512848</v>
+        <v>0.2209820034735132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4873651290232711</v>
+        <v>0.427697778847398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04940216925061797</v>
+        <v>0.04010479484094615</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1357573292755219</v>
+        <v>0.2243980249181897</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3205383188710165</v>
+        <v>0.2632950200853643</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8099684306423569</v>
+        <v>0.7882452959347435</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.57056456911117</v>
+        <v>1.813280797612184</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.343350352744992</v>
+        <v>1.146868237854956</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.021364094814628</v>
+        <v>3.219824301922331</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.038024849067044</v>
+        <v>3.088691809854964</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.086126410761523</v>
+        <v>2.978491334505629</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.66066517786465</v>
+        <v>1.618589277100314</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.772932079831818</v>
+        <v>1.755131946857638</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.796653019474984</v>
+        <v>1.72085817030067</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>4.179269018205625</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.172916096004442</v>
+        <v>8.172916096004441</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.109770673345945</v>
+        <v>5.093167487130568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.670982193184165</v>
+        <v>-1.197031294874646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.245838805393146</v>
+        <v>-0.0368291672876724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.616554178270007</v>
+        <v>8.677878473742693</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.004277605262293</v>
+        <v>-4.672536383256501</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.219121517028088</v>
+        <v>0.9056655170967496</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.327749493391721</v>
+        <v>9.595734158877637</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.105555192907846</v>
+        <v>-1.224796551077547</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.978740346887231</v>
+        <v>2.576404480669836</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.12803131581018</v>
+        <v>21.77064326736302</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.31486340401823</v>
+        <v>11.21309619457354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.4406667606026</v>
+        <v>12.75854428654483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.85913430652453</v>
+        <v>26.3565471453057</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.69545736335152</v>
+        <v>11.10409976475468</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.66528829373815</v>
+        <v>14.95852673010723</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>21.47149763509999</v>
+        <v>21.34998699285419</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.708694044133907</v>
+        <v>9.515433081497433</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.76420592768294</v>
+        <v>12.52164544317015</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.35236935591596</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6890882515959096</v>
+        <v>0.6890882515959094</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3793023134370835</v>
+        <v>0.3890025051555824</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1917740055852189</v>
+        <v>-0.157487525815679</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.08180926243752276</v>
+        <v>-0.01053153962738699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4430890078479898</v>
+        <v>0.4297094430773737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2361718115100856</v>
+        <v>-0.2449639691172825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04724756822009188</v>
+        <v>0.02678469900028409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6215376540515631</v>
+        <v>0.603076105131818</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08133653973930778</v>
+        <v>-0.08795020193152836</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1899611740796824</v>
+        <v>0.1640025217868411</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.994264626685323</v>
+        <v>4.001194916634898</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.379152042137923</v>
+        <v>2.351929822113475</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.779712468203919</v>
+        <v>2.827551218793787</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.402848958272896</v>
+        <v>2.419582067799469</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9954799403284379</v>
+        <v>0.9964444511051768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.332090022368907</v>
+        <v>1.351715513583823</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.384550694194962</v>
+        <v>2.301126312148141</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.061711944390039</v>
+        <v>1.033144958139271</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.458652000034314</v>
+        <v>1.348067286307405</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>13.91764532847954</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.139018195209461</v>
+        <v>9.139018195209459</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>14.44048949305823</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.949732247054194</v>
+        <v>3.652604604090298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.452772543521295</v>
+        <v>0.5229257501864383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.504051677749622</v>
+        <v>1.808034592288634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.217016700865739</v>
+        <v>6.670626701917783</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.924624734483125</v>
+        <v>4.343391739820668</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4865608744156867</v>
+        <v>1.154162309490238</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.007494013608571</v>
+        <v>7.645368909032549</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.639160665270154</v>
+        <v>4.512321624880746</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.881866299283065</v>
+        <v>2.778446932264486</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.39076772895216</v>
+        <v>21.25430158198123</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.69471890592141</v>
+        <v>14.18203370139492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.79220679090981</v>
+        <v>12.61055484686027</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.84178093917151</v>
+        <v>26.0278950814655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>23.44931353668046</v>
+        <v>23.35328249148459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.43907624562723</v>
+        <v>16.58320728861651</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>21.09504587055622</v>
+        <v>20.71780266810071</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.0732053160079</v>
+        <v>17.38278873827318</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.64889216672664</v>
+        <v>12.77723901903934</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>1.189389098345377</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7810120429437379</v>
+        <v>0.7810120429437377</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.769113257241465</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2694090732134131</v>
+        <v>0.3523646192374653</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.001872874422958837</v>
+        <v>-0.09451434111470704</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.07087250090848736</v>
+        <v>0.1151946049228234</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4022782223429739</v>
+        <v>0.3718014697157366</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2360556495762509</v>
+        <v>0.2461042313351807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01647484179857748</v>
+        <v>0.05210797959335323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7102856205205157</v>
+        <v>0.6816538381951668</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3985970129994386</v>
+        <v>0.3900696323979157</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2444140812016435</v>
+        <v>0.2345530286398275</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>19.36523278002301</v>
+        <v>16.12891091559889</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>12.08606238693945</v>
+        <v>11.29374469258436</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>12.3539781666682</v>
+        <v>11.24602108340099</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.377962223307506</v>
+        <v>3.472390306607828</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.16331410490137</v>
+        <v>3.010465436677966</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.350019017929697</v>
+        <v>2.159035665006378</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.621679222753142</v>
+        <v>3.707282876825543</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.001345523338398</v>
+        <v>3.081837486586033</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.451278648165105</v>
+        <v>2.64842015048097</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>3.539809044332859</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.120996439078232</v>
+        <v>5.120996439078235</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.732293093772479</v>
+        <v>-1.204825096447029</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.956459048509002</v>
+        <v>-5.931770699049376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.367379179742897</v>
+        <v>-4.155765047274445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.309887595074612</v>
+        <v>-3.034773290052407</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.990593922721598</v>
+        <v>-2.494760080196475</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3924148339708009</v>
+        <v>0.4985936935077444</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2629823929705655</v>
+        <v>0.06555128075008555</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.019417779303121</v>
+        <v>-1.693266214730165</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3648483015614677</v>
+        <v>0.24992886096457</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.14846120514622</v>
+        <v>13.16052625789936</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.784317966689319</v>
+        <v>6.019732036129593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.150295695609175</v>
+        <v>7.686084735271302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.12097817613624</v>
+        <v>11.02854990474894</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.69960800907594</v>
+        <v>13.9335602513753</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.2077013619942</v>
+        <v>12.87697848931258</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.19947932595687</v>
+        <v>10.26186133556926</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.508471206542216</v>
+        <v>9.109900233502712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.381179841719137</v>
+        <v>9.083946437445578</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2776034666628011</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4016053822258948</v>
+        <v>0.401605382225895</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1707768206818011</v>
+        <v>-0.1405125333901238</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5084982817463777</v>
+        <v>-0.4952093838421839</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2676314017245915</v>
+        <v>-0.3024044111785583</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1239445875217092</v>
+        <v>-0.1744565737986113</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1467878944139894</v>
+        <v>-0.1419855345865536</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0209481352066932</v>
+        <v>0.02144713320443663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0201424996588615</v>
+        <v>-0.001785786349394074</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.147710579289529</v>
+        <v>-0.1312774320422203</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01478046043401901</v>
+        <v>0.01740864327447007</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.286223628238371</v>
+        <v>2.199735260296546</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.120057683339465</v>
+        <v>0.9789759399541271</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.48700166726378</v>
+        <v>1.35651109851509</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.0663940908586</v>
+        <v>0.9626924987819087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.087116189022269</v>
+        <v>1.119270082071073</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.173841228145695</v>
+        <v>1.201419003518118</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.991721616708904</v>
+        <v>1.019781683070349</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7916364892124619</v>
+        <v>0.8798108595897559</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9397644928214066</v>
+        <v>0.9035540894271539</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.913380814281246</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.710941544227637</v>
+        <v>4.71094154422764</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.4437794094473</v>
@@ -1511,7 +1511,7 @@
         <v>8.233217635276491</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.568099294529306</v>
+        <v>9.568099294529308</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.07919696007992</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.194549559792963</v>
+        <v>3.090918371719817</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5081045970425343</v>
+        <v>0.5264298955954168</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.744699197752315</v>
+        <v>2.209143863551057</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.146127157521677</v>
+        <v>8.119322705276016</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.172361630676188</v>
+        <v>3.891691971698075</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.981709409430278</v>
+        <v>6.101714059937708</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.224106776112809</v>
+        <v>7.089725650786598</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.788222445475674</v>
+        <v>3.591630116117202</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.942176929279494</v>
+        <v>4.724929970803619</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.83077602560397</v>
+        <v>10.83566719395696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.05039657005786</v>
+        <v>7.265618590111582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.217941649463494</v>
+        <v>8.112863387145037</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.5278122000524</v>
+        <v>16.97182879307134</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.41734873137175</v>
+        <v>12.68657283266345</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.71925313663299</v>
+        <v>12.88542977242521</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.41995360054871</v>
+        <v>13.03059346788869</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.283410717013158</v>
+        <v>9.178346944499046</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.794517823135237</v>
+        <v>9.668962787076945</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4928085427658906</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5932446515283775</v>
+        <v>0.5932446515283778</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.9245811584247671</v>
@@ -1616,7 +1616,7 @@
         <v>0.6117335938153908</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.710916196645439</v>
+        <v>0.7109161966454393</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9073944219931822</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3082480351057985</v>
+        <v>0.3064329434472067</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06084949553017446</v>
+        <v>0.05340596763618706</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1761162305338224</v>
+        <v>0.2121874177858271</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5205108206080526</v>
+        <v>0.5061142349136122</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2576408197619907</v>
+        <v>0.2413424694650575</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3808519650622085</v>
+        <v>0.3784569853923507</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5698132970485167</v>
+        <v>0.5637316452372877</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3087630894390522</v>
+        <v>0.2948818098280699</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3690702733619151</v>
+        <v>0.359917287788132</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.768832974816422</v>
+        <v>1.68444389542918</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.16027509564257</v>
+        <v>1.158760444901121</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.376132133066359</v>
+        <v>1.328890334738118</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.43314431944314</v>
+        <v>1.475600826761128</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.082637329109014</v>
+        <v>1.108772621124513</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.140128702393993</v>
+        <v>1.146834901952478</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.360884684579185</v>
+        <v>1.332119537009668</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9556658187314296</v>
+        <v>0.9340227869437154</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.009028071357448</v>
+        <v>0.9864422536443919</v>
       </c>
     </row>
     <row r="34">
